--- a/portfolio/Excel Project 2 .xlsx
+++ b/portfolio/Excel Project 2 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajhgs\OneDrive\سطح المكتب\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463AE14-35F2-4B62-8E44-A4A6CAA6A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5047AF-0D4E-48AB-97AE-03694C1654BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2964" yWindow="1728" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -453,6 +453,15 @@
       <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -527,15 +536,6 @@
         <b/>
         <color indexed="8"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -8130,6 +8130,334 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{575CDDC7-70EC-4396-973F-E1B40A4C5EF8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Sales Person">
+  <location ref="N66:R77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="11">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="descending">
+      <items count="23">
+        <item x="21"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="مجموع من Amount" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="مجموع من Units" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="مجموع من profit" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="مجموع من profit2" fld="7" showDataAs="percentOfTotal" baseField="2" baseItem="7" numFmtId="10"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C816519D-5C48-451E-9449-60FB1C842CCD}" name="t_11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="product">
+  <location ref="A10:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0" sortType="ascending">
+      <items count="11">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="23">
+        <item x="21"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="مجموع من Units" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D3A817A-FD93-4443-9698-336930B7A8C3}" name="t_14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="product">
   <location ref="G59:L82" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -8303,10 +8631,10 @@
     <dataField name="مجموع من profit2" fld="7" showDataAs="percentOfTotal" baseField="2" baseItem="7" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="7">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8328,7 +8656,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB2BE3B1-8083-4594-A8BD-763D5ED648C2}" name="t_12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="product">
   <location ref="E10:G33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -8499,10 +8827,10 @@
     <dataField name="مجموع من profit" fld="7" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="9">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8544,7 +8872,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D6DA0E4-C840-495F-959A-15A36B7628B9}" name="country stats" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16" rowHeaderCaption="country">
   <location ref="A61:E68" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -8657,10 +8985,10 @@
     <dataField name="profit percentage" fld="7" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8738,7 +9066,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1B2521C-DC93-4D63-A82C-0D1F48073C08}" name="t_13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Sales Person">
   <location ref="O20:R31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -8842,7 +9170,7 @@
     <dataField name="مجموع من profit" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="21">
+    <format dxfId="24">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8851,14 +9179,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -8867,6 +9195,38 @@
           </reference>
           <reference field="0" count="1">
             <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -8881,6 +9241,9 @@
       </pivotArea>
     </format>
     <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -8893,7 +9256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="15">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -8903,7 +9266,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -8912,371 +9275,8 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{575CDDC7-70EC-4396-973F-E1B40A4C5EF8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Sales Person">
-  <location ref="N66:R77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="11">
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" sortType="descending">
-      <items count="23">
-        <item x="21"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="مجموع من Amount" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="مجموع من Units" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="مجموع من profit" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="مجموع من profit2" fld="7" showDataAs="percentOfTotal" baseField="2" baseItem="7" numFmtId="10"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="23">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C816519D-5C48-451E-9449-60FB1C842CCD}" name="t_11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="product">
-  <location ref="A10:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0" sortType="ascending">
-      <items count="11">
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="23">
-        <item x="21"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="مجموع من Units" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -9838,7 +9838,7 @@
     <col min="31" max="31" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" ht="52.5" customHeight="1"/>
+    <row r="1" spans="3:23" ht="6.6" customHeight="1"/>
     <row r="11" spans="3:23">
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -16497,7 +16497,7 @@
   <dimension ref="C1:R658"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="48" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16521,7 +16521,7 @@
     <col min="27" max="27" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" ht="52.5" customHeight="1"/>
+    <row r="1" spans="3:18" ht="3.6" customHeight="1"/>
     <row r="11" spans="3:18">
       <c r="C11" s="3" t="s">
         <v>11</v>
